--- a/data/pca/factorExposure/factorExposure_2015-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02513122643943531</v>
+        <v>-0.0128969764430019</v>
       </c>
       <c r="C2">
-        <v>0.02456603794280083</v>
+        <v>0.05266834452652846</v>
       </c>
       <c r="D2">
-        <v>-0.1522346751266633</v>
+        <v>-0.1186040156366297</v>
       </c>
       <c r="E2">
-        <v>0.05328155828894239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.05150819082050893</v>
+      </c>
+      <c r="F2">
+        <v>0.03152161761908064</v>
+      </c>
+      <c r="G2">
+        <v>0.1466314052014888</v>
+      </c>
+      <c r="H2">
+        <v>0.06024463631722601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04879619329642464</v>
+        <v>-0.02321436531875074</v>
       </c>
       <c r="C4">
-        <v>0.07333865367045153</v>
+        <v>0.110375748571912</v>
       </c>
       <c r="D4">
-        <v>-0.1133639218831315</v>
+        <v>-0.1144046372983923</v>
       </c>
       <c r="E4">
-        <v>0.1126227937119643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.05098816148473773</v>
+      </c>
+      <c r="F4">
+        <v>0.09276921391855587</v>
+      </c>
+      <c r="G4">
+        <v>0.02977209869051115</v>
+      </c>
+      <c r="H4">
+        <v>-0.07232134792375483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02861518760149723</v>
+        <v>-0.03339062566107261</v>
       </c>
       <c r="C6">
-        <v>0.01653493659115994</v>
+        <v>0.03701922638875292</v>
       </c>
       <c r="D6">
-        <v>-0.1171258984878906</v>
+        <v>-0.1003257980296811</v>
       </c>
       <c r="E6">
-        <v>0.07065647093192809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08781040297862001</v>
+      </c>
+      <c r="F6">
+        <v>0.04141071227432081</v>
+      </c>
+      <c r="G6">
+        <v>-0.002045002750147545</v>
+      </c>
+      <c r="H6">
+        <v>0.0113477836789691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0006336241782781652</v>
+        <v>-0.007049069608463043</v>
       </c>
       <c r="C7">
-        <v>0.0259456667143295</v>
+        <v>0.04070773263972728</v>
       </c>
       <c r="D7">
-        <v>-0.108253590515836</v>
+        <v>-0.09279502240184942</v>
       </c>
       <c r="E7">
-        <v>0.03674416204573307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07722582557902725</v>
+      </c>
+      <c r="F7">
+        <v>0.01085835017719147</v>
+      </c>
+      <c r="G7">
+        <v>-0.005209906178134137</v>
+      </c>
+      <c r="H7">
+        <v>-0.02276853809007197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0006691118759055266</v>
+        <v>0.005251407135028299</v>
       </c>
       <c r="C8">
-        <v>0.02876582501111531</v>
+        <v>0.03801832418897799</v>
       </c>
       <c r="D8">
-        <v>-0.0781484931367053</v>
+        <v>-0.0605240009868577</v>
       </c>
       <c r="E8">
-        <v>0.05055897400972122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04739630547340307</v>
+      </c>
+      <c r="F8">
+        <v>0.04871744839964125</v>
+      </c>
+      <c r="G8">
+        <v>0.08051557078285754</v>
+      </c>
+      <c r="H8">
+        <v>-0.03831256855112339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03877253536992865</v>
+        <v>-0.01680875693677328</v>
       </c>
       <c r="C9">
-        <v>0.06447141481804253</v>
+        <v>0.09122080127552415</v>
       </c>
       <c r="D9">
-        <v>-0.1155948758698644</v>
+        <v>-0.1001373293519898</v>
       </c>
       <c r="E9">
-        <v>0.08960934214379604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.04347758823320686</v>
+      </c>
+      <c r="F9">
+        <v>0.05973773889856009</v>
+      </c>
+      <c r="G9">
+        <v>0.009970776557304124</v>
+      </c>
+      <c r="H9">
+        <v>-0.02526662273775581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1880718241173635</v>
+        <v>-0.2429856023238302</v>
       </c>
       <c r="C10">
-        <v>-0.1653151742603547</v>
+        <v>-0.09477289603023799</v>
       </c>
       <c r="D10">
-        <v>0.03785326414308578</v>
+        <v>0.01457934088253835</v>
       </c>
       <c r="E10">
-        <v>0.03620509198337578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02366053592884572</v>
+      </c>
+      <c r="F10">
+        <v>0.04066789049057856</v>
+      </c>
+      <c r="G10">
+        <v>-0.006068505586867155</v>
+      </c>
+      <c r="H10">
+        <v>0.007258967328191018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01583328897859935</v>
+        <v>-0.01091055018616104</v>
       </c>
       <c r="C11">
-        <v>0.04202542896325155</v>
+        <v>0.06030868790008696</v>
       </c>
       <c r="D11">
-        <v>-0.04643499834932539</v>
+        <v>-0.03996177858993612</v>
       </c>
       <c r="E11">
-        <v>-0.006673803623686456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03649688432439775</v>
+      </c>
+      <c r="F11">
+        <v>-0.0120234820065031</v>
+      </c>
+      <c r="G11">
+        <v>-0.003554812401622456</v>
+      </c>
+      <c r="H11">
+        <v>-0.02019721678481497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01537273261489733</v>
+        <v>-0.01111342465326907</v>
       </c>
       <c r="C12">
-        <v>0.04195778556128702</v>
+        <v>0.05150034126386988</v>
       </c>
       <c r="D12">
-        <v>-0.06238041284547399</v>
+        <v>-0.04657816046757903</v>
       </c>
       <c r="E12">
-        <v>0.008786563366304595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03150331632509102</v>
+      </c>
+      <c r="F12">
+        <v>-0.01431391544604665</v>
+      </c>
+      <c r="G12">
+        <v>-0.01601537441172906</v>
+      </c>
+      <c r="H12">
+        <v>0.01535994159299189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01027136372912602</v>
+        <v>-0.004687831323896637</v>
       </c>
       <c r="C13">
-        <v>0.02672795605624399</v>
+        <v>0.05878797086364376</v>
       </c>
       <c r="D13">
-        <v>-0.1354081319626441</v>
+        <v>-0.1530464311880352</v>
       </c>
       <c r="E13">
-        <v>0.07179576614828016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.07388946595726283</v>
+      </c>
+      <c r="F13">
+        <v>0.0350841176733774</v>
+      </c>
+      <c r="G13">
+        <v>0.06255849704489551</v>
+      </c>
+      <c r="H13">
+        <v>0.07152368004297405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006145362745672029</v>
+        <v>-0.004226814807721105</v>
       </c>
       <c r="C14">
-        <v>0.01810132143400062</v>
+        <v>0.03485181745935421</v>
       </c>
       <c r="D14">
-        <v>-0.0803274066652581</v>
+        <v>-0.08850105361574465</v>
       </c>
       <c r="E14">
-        <v>0.03154208520541502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.08314707423330672</v>
+      </c>
+      <c r="F14">
+        <v>0.02682034356380436</v>
+      </c>
+      <c r="G14">
+        <v>0.02765691339572886</v>
+      </c>
+      <c r="H14">
+        <v>0.03311540482693595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003005567908056091</v>
+        <v>0.003375613200047776</v>
       </c>
       <c r="C15">
-        <v>0.01352732822819184</v>
+        <v>0.03025231681243996</v>
       </c>
       <c r="D15">
-        <v>-0.04692243764665587</v>
+        <v>-0.05861574142850647</v>
       </c>
       <c r="E15">
-        <v>0.008970918160140154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03549641469119171</v>
+      </c>
+      <c r="F15">
+        <v>0.006661269960817906</v>
+      </c>
+      <c r="G15">
+        <v>0.02931143569740921</v>
+      </c>
+      <c r="H15">
+        <v>-0.01277926144670731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01558240571365782</v>
+        <v>-0.0104652160035597</v>
       </c>
       <c r="C16">
-        <v>0.03838384574496686</v>
+        <v>0.05255386181115006</v>
       </c>
       <c r="D16">
-        <v>-0.05284032891000293</v>
+        <v>-0.043008909447668</v>
       </c>
       <c r="E16">
-        <v>0.00588043060934564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03827736424039668</v>
+      </c>
+      <c r="F16">
+        <v>-0.00647144931935216</v>
+      </c>
+      <c r="G16">
+        <v>-0.01355947469312251</v>
+      </c>
+      <c r="H16">
+        <v>-0.008540366993566882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.001867472692518412</v>
+        <v>0.001252456698237817</v>
       </c>
       <c r="C19">
-        <v>0.02034534046149361</v>
+        <v>0.01658091363204973</v>
       </c>
       <c r="D19">
-        <v>-0.0756287234677985</v>
+        <v>-0.04206290966772466</v>
       </c>
       <c r="E19">
-        <v>0.03434219133937585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.001714930350390712</v>
+      </c>
+      <c r="F19">
+        <v>0.004833367159174459</v>
+      </c>
+      <c r="G19">
+        <v>0.01668876463392377</v>
+      </c>
+      <c r="H19">
+        <v>0.02131054732371338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003673816318691528</v>
+        <v>-0.005843512259729751</v>
       </c>
       <c r="C20">
-        <v>0.02548141856306786</v>
+        <v>0.04376347112729548</v>
       </c>
       <c r="D20">
-        <v>-0.07435234752975471</v>
+        <v>-0.07970347309968927</v>
       </c>
       <c r="E20">
-        <v>0.05190366214824638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04747097660200984</v>
+      </c>
+      <c r="F20">
+        <v>0.0256317370612839</v>
+      </c>
+      <c r="G20">
+        <v>-0.008003955680454767</v>
+      </c>
+      <c r="H20">
+        <v>-0.02912927574231374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008427205687691118</v>
+        <v>-0.003920713203732716</v>
       </c>
       <c r="C21">
-        <v>0.03133037435157993</v>
+        <v>0.0492366961101916</v>
       </c>
       <c r="D21">
-        <v>-0.1278463797950963</v>
+        <v>-0.1132801950675186</v>
       </c>
       <c r="E21">
-        <v>0.1083921577708314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06319647201761697</v>
+      </c>
+      <c r="F21">
+        <v>0.08769768238568501</v>
+      </c>
+      <c r="G21">
+        <v>0.08149182540709984</v>
+      </c>
+      <c r="H21">
+        <v>0.09542245386367733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00413538554889257</v>
+        <v>0.005917218367778549</v>
       </c>
       <c r="C22">
-        <v>0.05311275227118516</v>
+        <v>0.08196202989319672</v>
       </c>
       <c r="D22">
-        <v>-0.2180691812064375</v>
+        <v>-0.2161809347904051</v>
       </c>
       <c r="E22">
-        <v>0.07619598245890556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04675377705294071</v>
+      </c>
+      <c r="F22">
+        <v>0.0317841268277994</v>
+      </c>
+      <c r="G22">
+        <v>0.2532211198275734</v>
+      </c>
+      <c r="H22">
+        <v>-0.1249118549200509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004635042326087227</v>
+        <v>0.002834184543799307</v>
       </c>
       <c r="C23">
-        <v>0.05330965155160828</v>
+        <v>0.08363784140764534</v>
       </c>
       <c r="D23">
-        <v>-0.2168589826020008</v>
+        <v>-0.2197287382836139</v>
       </c>
       <c r="E23">
-        <v>0.07636410074330222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04358102008501451</v>
+      </c>
+      <c r="F23">
+        <v>0.03494972235256601</v>
+      </c>
+      <c r="G23">
+        <v>0.2468505947838972</v>
+      </c>
+      <c r="H23">
+        <v>-0.1186771504702381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02148638923891163</v>
+        <v>-0.0115839741470394</v>
       </c>
       <c r="C24">
-        <v>0.06051932042801254</v>
+        <v>0.07037338440340055</v>
       </c>
       <c r="D24">
-        <v>-0.06754997064473685</v>
+        <v>-0.04478808277389283</v>
       </c>
       <c r="E24">
-        <v>0.008544634290469344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04559696559137829</v>
+      </c>
+      <c r="F24">
+        <v>-0.006649762627069506</v>
+      </c>
+      <c r="G24">
+        <v>0.004007709836373918</v>
+      </c>
+      <c r="H24">
+        <v>-0.009242259974904918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02183831967279769</v>
+        <v>-0.01623786347766678</v>
       </c>
       <c r="C25">
-        <v>0.05174878265413069</v>
+        <v>0.06483978569031142</v>
       </c>
       <c r="D25">
-        <v>-0.05992412830445514</v>
+        <v>-0.04902906713041266</v>
       </c>
       <c r="E25">
-        <v>0.01413369776127995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03081112829546841</v>
+      </c>
+      <c r="F25">
+        <v>-0.004675490622388599</v>
+      </c>
+      <c r="G25">
+        <v>-0.01099546168788103</v>
+      </c>
+      <c r="H25">
+        <v>-0.007077471005574913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.007955985444177546</v>
+        <v>-0.01715215148009012</v>
       </c>
       <c r="C26">
-        <v>0.01771306283302593</v>
+        <v>0.03105679414526082</v>
       </c>
       <c r="D26">
-        <v>-0.06544939447617562</v>
+        <v>-0.05431021662131476</v>
       </c>
       <c r="E26">
-        <v>0.03614709110467586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0592131351862956</v>
+      </c>
+      <c r="F26">
+        <v>0.04386455640231111</v>
+      </c>
+      <c r="G26">
+        <v>0.0356864773860678</v>
+      </c>
+      <c r="H26">
+        <v>0.00462774135196965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2680352420828731</v>
+        <v>-0.3123391820560823</v>
       </c>
       <c r="C28">
-        <v>-0.1826675470141517</v>
+        <v>-0.09402649496547023</v>
       </c>
       <c r="D28">
-        <v>0.009029102915966933</v>
+        <v>0.02030568373046438</v>
       </c>
       <c r="E28">
-        <v>0.03253068280078662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05220174082807043</v>
+      </c>
+      <c r="F28">
+        <v>0.044873305245753</v>
+      </c>
+      <c r="G28">
+        <v>0.06679067399028867</v>
+      </c>
+      <c r="H28">
+        <v>-0.01148085382959935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001426539394230728</v>
+        <v>-0.002464907273521243</v>
       </c>
       <c r="C29">
-        <v>0.0219208318321368</v>
+        <v>0.0420946374734884</v>
       </c>
       <c r="D29">
-        <v>-0.07643567941366654</v>
+        <v>-0.09343510788184946</v>
       </c>
       <c r="E29">
-        <v>0.0397026179787453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0959834383235927</v>
+      </c>
+      <c r="F29">
+        <v>0.03108109346258271</v>
+      </c>
+      <c r="G29">
+        <v>0.02291581986181408</v>
+      </c>
+      <c r="H29">
+        <v>0.04239254894810537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02914547762223488</v>
+        <v>-0.01890886533019268</v>
       </c>
       <c r="C30">
-        <v>0.06993935826703027</v>
+        <v>0.09711119824522578</v>
       </c>
       <c r="D30">
-        <v>-0.1528974382514756</v>
+        <v>-0.1191297540285414</v>
       </c>
       <c r="E30">
-        <v>0.05612449406705664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08599884431287644</v>
+      </c>
+      <c r="F30">
+        <v>0.01437427768096555</v>
+      </c>
+      <c r="G30">
+        <v>0.02417096546574748</v>
+      </c>
+      <c r="H30">
+        <v>-0.04547591933755755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03682867945951845</v>
+        <v>-0.01162713945755903</v>
       </c>
       <c r="C31">
-        <v>0.08397132345547523</v>
+        <v>0.09542279868614288</v>
       </c>
       <c r="D31">
-        <v>-0.058511005776809</v>
+        <v>-0.03442870532573614</v>
       </c>
       <c r="E31">
-        <v>0.02335368636166953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02711922379989202</v>
+      </c>
+      <c r="F31">
+        <v>0.01511934952460103</v>
+      </c>
+      <c r="G31">
+        <v>0.01828060292391946</v>
+      </c>
+      <c r="H31">
+        <v>-0.003609237785079951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01674112991954171</v>
+        <v>-0.01363875304900144</v>
       </c>
       <c r="C32">
-        <v>0.04075368769195257</v>
+        <v>0.05100608068241616</v>
       </c>
       <c r="D32">
-        <v>-0.09076328583990503</v>
+        <v>-0.08010835065543095</v>
       </c>
       <c r="E32">
-        <v>0.06794416172400053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01587029778155948</v>
+      </c>
+      <c r="F32">
+        <v>0.04700929217018571</v>
+      </c>
+      <c r="G32">
+        <v>0.03277617938245396</v>
+      </c>
+      <c r="H32">
+        <v>0.0246666877465822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.007120434385317006</v>
+        <v>-0.008349825125139211</v>
       </c>
       <c r="C33">
-        <v>0.04083252358385446</v>
+        <v>0.06285873413377192</v>
       </c>
       <c r="D33">
-        <v>-0.1110406337187609</v>
+        <v>-0.1081017770900169</v>
       </c>
       <c r="E33">
-        <v>0.05851477630218812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05756174243310765</v>
+      </c>
+      <c r="F33">
+        <v>0.02686677485819424</v>
+      </c>
+      <c r="G33">
+        <v>0.01438669151496069</v>
+      </c>
+      <c r="H33">
+        <v>-0.000982734554742147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01873887799954011</v>
+        <v>-0.01017343124062413</v>
       </c>
       <c r="C34">
-        <v>0.06097052712894713</v>
+        <v>0.06322277366136722</v>
       </c>
       <c r="D34">
-        <v>-0.06028747331388843</v>
+        <v>-0.02599355607280017</v>
       </c>
       <c r="E34">
-        <v>-0.03402070147803048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0360773566402697</v>
+      </c>
+      <c r="F34">
+        <v>-0.03898628823298928</v>
+      </c>
+      <c r="G34">
+        <v>0.001737804617703194</v>
+      </c>
+      <c r="H34">
+        <v>0.002452840377338726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>3.820773835466155e-05</v>
+        <v>-0.003781797307805516</v>
       </c>
       <c r="C35">
-        <v>-0.0002207640590562793</v>
+        <v>0.01477915480432641</v>
       </c>
       <c r="D35">
-        <v>9.151168569896493e-05</v>
+        <v>-0.03364606727675986</v>
       </c>
       <c r="E35">
-        <v>0.0001780592657772242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01886795263708959</v>
+      </c>
+      <c r="F35">
+        <v>0.01653123270467773</v>
+      </c>
+      <c r="G35">
+        <v>0.001662980202804697</v>
+      </c>
+      <c r="H35">
+        <v>0.006698497170296327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.008712002612726654</v>
+        <v>-0.01180546629805406</v>
       </c>
       <c r="C36">
-        <v>0.007876214423354936</v>
+        <v>0.02353813438376384</v>
       </c>
       <c r="D36">
-        <v>-0.06559031739620758</v>
+        <v>-0.06395387219776177</v>
       </c>
       <c r="E36">
-        <v>0.05567450426873665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04877509316292646</v>
+      </c>
+      <c r="F36">
+        <v>0.04659050265836515</v>
+      </c>
+      <c r="G36">
+        <v>0.02119340146248491</v>
+      </c>
+      <c r="H36">
+        <v>0.001617546305445189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005700212020514104</v>
+        <v>-0.01121872315890005</v>
       </c>
       <c r="C38">
-        <v>0.007928892590956705</v>
+        <v>0.02764213360228823</v>
       </c>
       <c r="D38">
-        <v>-0.09126544745389895</v>
+        <v>-0.087221830680351</v>
       </c>
       <c r="E38">
-        <v>0.02812861214094012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03173782264687812</v>
+      </c>
+      <c r="F38">
+        <v>0.005116168689755617</v>
+      </c>
+      <c r="G38">
+        <v>0.0418517632880795</v>
+      </c>
+      <c r="H38">
+        <v>-0.03334613517065625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01499994551934698</v>
+        <v>-0.006913990515235212</v>
       </c>
       <c r="C39">
-        <v>0.06099465361556063</v>
+        <v>0.08633482260534699</v>
       </c>
       <c r="D39">
-        <v>-0.1143563758875032</v>
+        <v>-0.08858692400755891</v>
       </c>
       <c r="E39">
-        <v>0.02321385733179824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0803864129586207</v>
+      </c>
+      <c r="F39">
+        <v>-0.005887247657309555</v>
+      </c>
+      <c r="G39">
+        <v>0.002740587883903698</v>
+      </c>
+      <c r="H39">
+        <v>-0.008074765600037573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01736592239355032</v>
+        <v>-0.01358432230149548</v>
       </c>
       <c r="C40">
-        <v>0.02581700720318284</v>
+        <v>0.04282670126024159</v>
       </c>
       <c r="D40">
-        <v>-0.1226140264606042</v>
+        <v>-0.08587970865183613</v>
       </c>
       <c r="E40">
-        <v>0.01001549689054994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0702749423251682</v>
+      </c>
+      <c r="F40">
+        <v>-0.03276783445165521</v>
+      </c>
+      <c r="G40">
+        <v>0.08454986182064164</v>
+      </c>
+      <c r="H40">
+        <v>0.0294425888307903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01126864881563165</v>
+        <v>-0.01849372932998269</v>
       </c>
       <c r="C41">
-        <v>0.005053288181690427</v>
+        <v>0.0234154464062685</v>
       </c>
       <c r="D41">
-        <v>-0.03465903852385267</v>
+        <v>-0.04205955516145675</v>
       </c>
       <c r="E41">
-        <v>0.02757395092626144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01246808364608876</v>
+      </c>
+      <c r="F41">
+        <v>0.01929865443649998</v>
+      </c>
+      <c r="G41">
+        <v>0.01149751447842832</v>
+      </c>
+      <c r="H41">
+        <v>-0.002799448081620287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0008753810959011721</v>
+        <v>-0.009819198437647635</v>
       </c>
       <c r="C43">
-        <v>0.00249792531536004</v>
+        <v>0.01702706608029585</v>
       </c>
       <c r="D43">
-        <v>-0.04838056501688531</v>
+        <v>-0.05024854040878463</v>
       </c>
       <c r="E43">
-        <v>0.02829315061987348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02568439580263552</v>
+      </c>
+      <c r="F43">
+        <v>0.02104754660625874</v>
+      </c>
+      <c r="G43">
+        <v>0.01011771053247657</v>
+      </c>
+      <c r="H43">
+        <v>-0.01624975554069469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01934391722431053</v>
+        <v>-0.01111152781184876</v>
       </c>
       <c r="C44">
-        <v>0.02653718820375766</v>
+        <v>0.05048450443152989</v>
       </c>
       <c r="D44">
-        <v>-0.09853278741723019</v>
+        <v>-0.09811953417822114</v>
       </c>
       <c r="E44">
-        <v>0.07170336610458497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06785421288137317</v>
+      </c>
+      <c r="F44">
+        <v>0.03417087841987931</v>
+      </c>
+      <c r="G44">
+        <v>0.04588857392459719</v>
+      </c>
+      <c r="H44">
+        <v>-0.02440155161497173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.00301234753246553</v>
+        <v>0.001367773940536351</v>
       </c>
       <c r="C46">
-        <v>0.0315728509911846</v>
+        <v>0.04322943425784272</v>
       </c>
       <c r="D46">
-        <v>-0.08264360232206448</v>
+        <v>-0.06908344407699746</v>
       </c>
       <c r="E46">
-        <v>0.03648034671997356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07287808020170088</v>
+      </c>
+      <c r="F46">
+        <v>0.03057687730370812</v>
+      </c>
+      <c r="G46">
+        <v>0.03082266055499756</v>
+      </c>
+      <c r="H46">
+        <v>0.002147723804360809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0732570581254751</v>
+        <v>-0.0320409369957198</v>
       </c>
       <c r="C47">
-        <v>0.1129028769595773</v>
+        <v>0.1264544899867347</v>
       </c>
       <c r="D47">
-        <v>-0.06178500012281412</v>
+        <v>-0.02274993403063346</v>
       </c>
       <c r="E47">
-        <v>0.02258077465560476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.001567435668525734</v>
+      </c>
+      <c r="F47">
+        <v>-0.006835653454855454</v>
+      </c>
+      <c r="G47">
+        <v>-0.01758075451743251</v>
+      </c>
+      <c r="H47">
+        <v>-0.006266163374016936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01080946171767662</v>
+        <v>-0.01467983419389732</v>
       </c>
       <c r="C48">
-        <v>0.01793022889158611</v>
+        <v>0.03488798409037843</v>
       </c>
       <c r="D48">
-        <v>-0.07006932803041281</v>
+        <v>-0.06808033211804837</v>
       </c>
       <c r="E48">
-        <v>0.05797889542398666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04297015870921915</v>
+      </c>
+      <c r="F48">
+        <v>0.05245672403101028</v>
+      </c>
+      <c r="G48">
+        <v>0.03179858135521463</v>
+      </c>
+      <c r="H48">
+        <v>-0.007578717208116372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.001746285260496822</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.00072349592153899</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0005822883170092896</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0009702266115096306</v>
+      </c>
+      <c r="F49">
+        <v>0.001225680452267532</v>
+      </c>
+      <c r="G49">
+        <v>-0.001647150689530411</v>
+      </c>
+      <c r="H49">
+        <v>0.001243624196352958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.033504531654337</v>
+        <v>-0.0151917288774042</v>
       </c>
       <c r="C50">
-        <v>0.05847324269311287</v>
+        <v>0.07652620883708322</v>
       </c>
       <c r="D50">
-        <v>-0.0627291096915594</v>
+        <v>-0.04501891037037497</v>
       </c>
       <c r="E50">
-        <v>0.0131109001877799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02770624733173519</v>
+      </c>
+      <c r="F50">
+        <v>0.005970862800035712</v>
+      </c>
+      <c r="G50">
+        <v>0.02053543647031418</v>
+      </c>
+      <c r="H50">
+        <v>-0.01516465127573124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004730767606878222</v>
+        <v>0.0038368063743538</v>
       </c>
       <c r="C51">
-        <v>0.007206067342414394</v>
+        <v>0.01890340474288935</v>
       </c>
       <c r="D51">
-        <v>-0.0651720528427612</v>
+        <v>-0.04481165538537117</v>
       </c>
       <c r="E51">
-        <v>0.02806592408225064</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05088052574786751</v>
+      </c>
+      <c r="F51">
+        <v>0.03241901990265338</v>
+      </c>
+      <c r="G51">
+        <v>0.0529168604776691</v>
+      </c>
+      <c r="H51">
+        <v>0.004394416103996961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1103928611425307</v>
+        <v>-0.06158130231154783</v>
       </c>
       <c r="C53">
-        <v>0.1293110365430842</v>
+        <v>0.1620394403377758</v>
       </c>
       <c r="D53">
-        <v>0.002795569818050302</v>
+        <v>0.01977220816714883</v>
       </c>
       <c r="E53">
-        <v>0.03830700555350197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02813013207319638</v>
+      </c>
+      <c r="F53">
+        <v>0.04187175698930535</v>
+      </c>
+      <c r="G53">
+        <v>0.007823140003082591</v>
+      </c>
+      <c r="H53">
+        <v>-0.01103699386764562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.009939134341008753</v>
+        <v>-0.01223335144505117</v>
       </c>
       <c r="C54">
-        <v>0.02377709191831238</v>
+        <v>0.04144677701453144</v>
       </c>
       <c r="D54">
-        <v>-0.09186996576239931</v>
+        <v>-0.07415299676527105</v>
       </c>
       <c r="E54">
-        <v>0.01982166301944605</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03941508178479634</v>
+      </c>
+      <c r="F54">
+        <v>0.002581090845009911</v>
+      </c>
+      <c r="G54">
+        <v>0.0331749994394657</v>
+      </c>
+      <c r="H54">
+        <v>-0.02258037981248039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09060480142533354</v>
+        <v>-0.04307111150462085</v>
       </c>
       <c r="C55">
-        <v>0.1101032678207926</v>
+        <v>0.1283498618621495</v>
       </c>
       <c r="D55">
-        <v>-0.001596702910071776</v>
+        <v>0.04239068549858816</v>
       </c>
       <c r="E55">
-        <v>-0.004160408113120383</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00488124398997567</v>
+      </c>
+      <c r="F55">
+        <v>0.00421123460986157</v>
+      </c>
+      <c r="G55">
+        <v>0.01389628966075872</v>
+      </c>
+      <c r="H55">
+        <v>0.007347692797276885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1316851454226916</v>
+        <v>-0.0620079842341539</v>
       </c>
       <c r="C56">
-        <v>0.1514103405378301</v>
+        <v>0.1904328844780282</v>
       </c>
       <c r="D56">
-        <v>-0.02477642582926519</v>
+        <v>0.03482525366761458</v>
       </c>
       <c r="E56">
-        <v>-0.005404049620461092</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03038931943946892</v>
+      </c>
+      <c r="F56">
+        <v>0.00707833337766161</v>
+      </c>
+      <c r="G56">
+        <v>0.06149277853492399</v>
+      </c>
+      <c r="H56">
+        <v>-0.002162460297475267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0003595044733854041</v>
+        <v>-0.008944146189978339</v>
       </c>
       <c r="C58">
-        <v>0.01698935325552037</v>
+        <v>0.06407112080475744</v>
       </c>
       <c r="D58">
-        <v>-0.2244465715329382</v>
+        <v>-0.2676251444050753</v>
       </c>
       <c r="E58">
-        <v>0.1576437083372874</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07213222499394815</v>
+      </c>
+      <c r="F58">
+        <v>0.1340114028510778</v>
+      </c>
+      <c r="G58">
+        <v>0.1622337962222489</v>
+      </c>
+      <c r="H58">
+        <v>-0.1018820602395235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1914188158911786</v>
+        <v>-0.2576031601021472</v>
       </c>
       <c r="C59">
-        <v>-0.1341717426590201</v>
+        <v>-0.06118175492168079</v>
       </c>
       <c r="D59">
-        <v>-0.04896761357535363</v>
+        <v>-0.04551889966860584</v>
       </c>
       <c r="E59">
-        <v>0.03494177025297233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01624181054124869</v>
+      </c>
+      <c r="F59">
+        <v>0.01857614538639567</v>
+      </c>
+      <c r="G59">
+        <v>0.02183073914367277</v>
+      </c>
+      <c r="H59">
+        <v>0.03515167369414558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1809085774564451</v>
+        <v>-0.1544773146142841</v>
       </c>
       <c r="C60">
-        <v>0.09676088274182015</v>
+        <v>0.1620235303985563</v>
       </c>
       <c r="D60">
-        <v>-0.1212934632007111</v>
+        <v>-0.04359539038572066</v>
       </c>
       <c r="E60">
-        <v>-0.06278656326270167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1101839611552709</v>
+      </c>
+      <c r="F60">
+        <v>-0.1885992957718964</v>
+      </c>
+      <c r="G60">
+        <v>-0.2660475442557624</v>
+      </c>
+      <c r="H60">
+        <v>0.1148516587011569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0238721505011612</v>
+        <v>-0.01439349114319782</v>
       </c>
       <c r="C61">
-        <v>0.05711305173818144</v>
+        <v>0.08037683145382092</v>
       </c>
       <c r="D61">
-        <v>-0.08737211047293016</v>
+        <v>-0.06691806120763567</v>
       </c>
       <c r="E61">
-        <v>0.009116899542725194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05794022884697795</v>
+      </c>
+      <c r="F61">
+        <v>-0.01308805959174075</v>
+      </c>
+      <c r="G61">
+        <v>-0.003450050556652549</v>
+      </c>
+      <c r="H61">
+        <v>0.003415004227854969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0115278907754978</v>
+        <v>-0.01552468247312491</v>
       </c>
       <c r="C63">
-        <v>0.02548149176735114</v>
+        <v>0.04431863900507772</v>
       </c>
       <c r="D63">
-        <v>-0.08032543600023255</v>
+        <v>-0.05333590818469097</v>
       </c>
       <c r="E63">
-        <v>0.03221641027464017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07713231830278081</v>
+      </c>
+      <c r="F63">
+        <v>0.02101189282548653</v>
+      </c>
+      <c r="G63">
+        <v>0.01136723195294003</v>
+      </c>
+      <c r="H63">
+        <v>-0.007139090417208472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0536083073905084</v>
+        <v>-0.01811281249673591</v>
       </c>
       <c r="C64">
-        <v>0.08765726588207337</v>
+        <v>0.1036596881161101</v>
       </c>
       <c r="D64">
-        <v>-0.02758621836264475</v>
+        <v>-0.01372448402311697</v>
       </c>
       <c r="E64">
-        <v>0.02791207558164633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03508581970404338</v>
+      </c>
+      <c r="F64">
+        <v>0.01824432228511567</v>
+      </c>
+      <c r="G64">
+        <v>-0.02236406412625934</v>
+      </c>
+      <c r="H64">
+        <v>-0.03149057275262588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02705531265242745</v>
+        <v>-0.0262294922325407</v>
       </c>
       <c r="C65">
-        <v>0.01850926413709792</v>
+        <v>0.04552358884223153</v>
       </c>
       <c r="D65">
-        <v>-0.09920018115312272</v>
+        <v>-0.09819700791701924</v>
       </c>
       <c r="E65">
-        <v>0.03182185098644093</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06767902347153693</v>
+      </c>
+      <c r="F65">
+        <v>-0.01016172812886138</v>
+      </c>
+      <c r="G65">
+        <v>-0.04470531306130082</v>
+      </c>
+      <c r="H65">
+        <v>-0.02792649413174512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02183679450844902</v>
+        <v>-0.007926715322213311</v>
       </c>
       <c r="C66">
-        <v>0.07214480497346719</v>
+        <v>0.1067357515062703</v>
       </c>
       <c r="D66">
-        <v>-0.133582598231675</v>
+        <v>-0.113321261120203</v>
       </c>
       <c r="E66">
-        <v>0.02331524508019675</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07513513656501523</v>
+      </c>
+      <c r="F66">
+        <v>-0.006717237129280458</v>
+      </c>
+      <c r="G66">
+        <v>0.02201501685755867</v>
+      </c>
+      <c r="H66">
+        <v>-0.01451539140943088</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02104671513411617</v>
+        <v>-0.02091141709740162</v>
       </c>
       <c r="C67">
-        <v>0.02036438423545024</v>
+        <v>0.03672891121175525</v>
       </c>
       <c r="D67">
-        <v>-0.05518865018633858</v>
+        <v>-0.04657929718258454</v>
       </c>
       <c r="E67">
-        <v>-0.006233938088087127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0284781448091049</v>
+      </c>
+      <c r="F67">
+        <v>-0.02402119967241359</v>
+      </c>
+      <c r="G67">
+        <v>0.01841909301307931</v>
+      </c>
+      <c r="H67">
+        <v>-0.02123551635405057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2091536656401283</v>
+        <v>-0.2791925865046634</v>
       </c>
       <c r="C68">
-        <v>-0.1454151455887684</v>
+        <v>-0.07089068894819207</v>
       </c>
       <c r="D68">
-        <v>-0.01935471377665586</v>
+        <v>-0.02496587661132143</v>
       </c>
       <c r="E68">
-        <v>0.0195557119752067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002176777234777239</v>
+      </c>
+      <c r="F68">
+        <v>0.0226302105484688</v>
+      </c>
+      <c r="G68">
+        <v>0.05955981664004732</v>
+      </c>
+      <c r="H68">
+        <v>-0.001758115406785299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05578664390575611</v>
+        <v>-0.01644807151693033</v>
       </c>
       <c r="C69">
-        <v>0.1188268904401444</v>
+        <v>0.1154794857807619</v>
       </c>
       <c r="D69">
-        <v>-0.07915122953859409</v>
+        <v>-0.01858641991073796</v>
       </c>
       <c r="E69">
-        <v>0.01719047484997186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01443636904160752</v>
+      </c>
+      <c r="F69">
+        <v>-0.01858652415300865</v>
+      </c>
+      <c r="G69">
+        <v>-0.007540778970957089</v>
+      </c>
+      <c r="H69">
+        <v>0.008029360088181543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2240148026916259</v>
+        <v>-0.271097030329483</v>
       </c>
       <c r="C71">
-        <v>-0.1697047197612993</v>
+        <v>-0.08756423699747454</v>
       </c>
       <c r="D71">
-        <v>-0.01566947316184002</v>
+        <v>-0.006662949958152166</v>
       </c>
       <c r="E71">
-        <v>0.005850771567123534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.005433499936467846</v>
+      </c>
+      <c r="F71">
+        <v>0.01157492992353907</v>
+      </c>
+      <c r="G71">
+        <v>0.04465863407921444</v>
+      </c>
+      <c r="H71">
+        <v>-0.01689744704635149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09992688346364702</v>
+        <v>-0.06422321653709277</v>
       </c>
       <c r="C72">
-        <v>0.07481312805455324</v>
+        <v>0.1247065102147006</v>
       </c>
       <c r="D72">
-        <v>-0.1197773688803796</v>
+        <v>-0.05865956979757791</v>
       </c>
       <c r="E72">
-        <v>0.01761127762731487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08444770800854313</v>
+      </c>
+      <c r="F72">
+        <v>-0.01898301206805257</v>
+      </c>
+      <c r="G72">
+        <v>-0.0364311375000085</v>
+      </c>
+      <c r="H72">
+        <v>0.004437586191744137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1670387737579217</v>
+        <v>-0.1561298086823454</v>
       </c>
       <c r="C73">
-        <v>0.07118946331903563</v>
+        <v>0.1568712057037995</v>
       </c>
       <c r="D73">
-        <v>-0.1965570180697657</v>
+        <v>-0.07330521494607056</v>
       </c>
       <c r="E73">
-        <v>-0.09921722446511519</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2866205107098974</v>
+      </c>
+      <c r="F73">
+        <v>-0.2799002411566385</v>
+      </c>
+      <c r="G73">
+        <v>-0.4325386680420702</v>
+      </c>
+      <c r="H73">
+        <v>0.09592497345081874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.101905902171619</v>
+        <v>-0.05247820165199593</v>
       </c>
       <c r="C74">
-        <v>0.1180933159935447</v>
+        <v>0.1424383336216479</v>
       </c>
       <c r="D74">
-        <v>0.04781189028677147</v>
+        <v>0.0499483305007501</v>
       </c>
       <c r="E74">
-        <v>0.01699320791821157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02525314797789546</v>
+      </c>
+      <c r="F74">
+        <v>0.03227765935636474</v>
+      </c>
+      <c r="G74">
+        <v>-0.005461496263829482</v>
+      </c>
+      <c r="H74">
+        <v>0.0008703812234325476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2202418877869718</v>
+        <v>-0.1018726940166558</v>
       </c>
       <c r="C75">
-        <v>0.2077239715153059</v>
+        <v>0.2618338307107666</v>
       </c>
       <c r="D75">
-        <v>0.06285983631569803</v>
+        <v>0.122199198657102</v>
       </c>
       <c r="E75">
-        <v>-0.08422858403418246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1136262332177487</v>
+      </c>
+      <c r="F75">
+        <v>-0.04851991180819828</v>
+      </c>
+      <c r="G75">
+        <v>0.105813381724861</v>
+      </c>
+      <c r="H75">
+        <v>-0.06906066973914955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1319893398800364</v>
+        <v>-0.06112635651158047</v>
       </c>
       <c r="C76">
-        <v>0.1409117797916742</v>
+        <v>0.1776684558617276</v>
       </c>
       <c r="D76">
-        <v>0.0006352112837440413</v>
+        <v>0.05325666669091887</v>
       </c>
       <c r="E76">
-        <v>-0.01839519966648463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03457218895342559</v>
+      </c>
+      <c r="F76">
+        <v>-0.004145551588920766</v>
+      </c>
+      <c r="G76">
+        <v>0.04426590911996458</v>
+      </c>
+      <c r="H76">
+        <v>-0.01412399136324999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01919510380603383</v>
+        <v>-0.002841904571634681</v>
       </c>
       <c r="C77">
-        <v>0.07458861290453218</v>
+        <v>0.1169577296622564</v>
       </c>
       <c r="D77">
-        <v>-0.2037513228583671</v>
+        <v>-0.4756635815476598</v>
       </c>
       <c r="E77">
-        <v>0.1117068076226123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7833587372641552</v>
+      </c>
+      <c r="F77">
+        <v>-0.1672056992569792</v>
+      </c>
+      <c r="G77">
+        <v>-0.2158510254327533</v>
+      </c>
+      <c r="H77">
+        <v>-0.002516084716897921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03400041882388863</v>
+        <v>-0.02249845570906202</v>
       </c>
       <c r="C78">
-        <v>0.0721938718389265</v>
+        <v>0.094455633395751</v>
       </c>
       <c r="D78">
-        <v>-0.1516121980648685</v>
+        <v>-0.08737050467014569</v>
       </c>
       <c r="E78">
-        <v>0.08261292176908862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07845599237914923</v>
+      </c>
+      <c r="F78">
+        <v>0.04081399632610255</v>
+      </c>
+      <c r="G78">
+        <v>0.08470938293963186</v>
+      </c>
+      <c r="H78">
+        <v>0.03635730872416182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1085507128710516</v>
+        <v>-0.05142029742747083</v>
       </c>
       <c r="C79">
-        <v>0.2014309936828697</v>
+        <v>0.2097163677734623</v>
       </c>
       <c r="D79">
-        <v>0.4367134120858421</v>
+        <v>0.1237933530026448</v>
       </c>
       <c r="E79">
-        <v>0.7950806520110444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.08490646573965999</v>
+      </c>
+      <c r="F79">
+        <v>0.8043392296903659</v>
+      </c>
+      <c r="G79">
+        <v>-0.4111105357821203</v>
+      </c>
+      <c r="H79">
+        <v>0.002940405113658868</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.002274685881505262</v>
+        <v>-0.007035753397047101</v>
       </c>
       <c r="C80">
-        <v>0.04485261997642278</v>
+        <v>0.0442652138441951</v>
       </c>
       <c r="D80">
-        <v>-0.04668324476744062</v>
+        <v>-0.03239081747418997</v>
       </c>
       <c r="E80">
-        <v>0.005711898965321237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06234649954255295</v>
+      </c>
+      <c r="F80">
+        <v>-0.001686904821408844</v>
+      </c>
+      <c r="G80">
+        <v>0.01601509773681057</v>
+      </c>
+      <c r="H80">
+        <v>0.08956145092757266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1105147393653944</v>
+        <v>-0.03810424031594369</v>
       </c>
       <c r="C81">
-        <v>0.1373516955999038</v>
+        <v>0.1613821294620438</v>
       </c>
       <c r="D81">
-        <v>0.07537572664762666</v>
+        <v>0.07366322990647821</v>
       </c>
       <c r="E81">
-        <v>0.002385918228315964</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05659010407014961</v>
+      </c>
+      <c r="F81">
+        <v>0.05427000688597323</v>
+      </c>
+      <c r="G81">
+        <v>0.07813161422041687</v>
+      </c>
+      <c r="H81">
+        <v>0.009815102502591487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.227472578689743</v>
+        <v>-0.08550865320618503</v>
       </c>
       <c r="C82">
-        <v>0.3032196642222075</v>
+        <v>0.3012154081590807</v>
       </c>
       <c r="D82">
-        <v>0.1249741210959135</v>
+        <v>0.2257414118662874</v>
       </c>
       <c r="E82">
-        <v>-0.227869570481448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1035435856994879</v>
+      </c>
+      <c r="F82">
+        <v>-0.1272567256046597</v>
+      </c>
+      <c r="G82">
+        <v>0.1377219021517866</v>
+      </c>
+      <c r="H82">
+        <v>0.01030026390697234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01069333787826144</v>
+        <v>0.007885501082155881</v>
       </c>
       <c r="C83">
-        <v>0.05195422328414223</v>
+        <v>0.02003004099681687</v>
       </c>
       <c r="D83">
-        <v>-0.01750765970194824</v>
+        <v>-0.02963298396039098</v>
       </c>
       <c r="E83">
-        <v>0.04150718129982849</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08709503060035523</v>
+      </c>
+      <c r="F83">
+        <v>0.08114830785072319</v>
+      </c>
+      <c r="G83">
+        <v>0.1998313891777571</v>
+      </c>
+      <c r="H83">
+        <v>0.9094231028355564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001498515669157925</v>
+        <v>0.003779036971060811</v>
       </c>
       <c r="C84">
-        <v>0.002863980322727399</v>
+        <v>0.01659294062435284</v>
       </c>
       <c r="D84">
-        <v>-0.008766734988438617</v>
+        <v>-0.04223233249745396</v>
       </c>
       <c r="E84">
-        <v>-0.002494595137191256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0125204183340707</v>
+      </c>
+      <c r="F84">
+        <v>0.02672054715312312</v>
+      </c>
+      <c r="G84">
+        <v>0.05735826020694237</v>
+      </c>
+      <c r="H84">
+        <v>-0.05687621850833602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1375137263164346</v>
+        <v>-0.05802036419570327</v>
       </c>
       <c r="C85">
-        <v>0.1470840135989557</v>
+        <v>0.1777466503265545</v>
       </c>
       <c r="D85">
-        <v>0.079492490880456</v>
+        <v>0.1108152826209717</v>
       </c>
       <c r="E85">
-        <v>0.01678267539694664</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01688994632293128</v>
+      </c>
+      <c r="F85">
+        <v>0.06313254792006621</v>
+      </c>
+      <c r="G85">
+        <v>0.02442362832935938</v>
+      </c>
+      <c r="H85">
+        <v>-0.01810503942575802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02275792455300991</v>
+        <v>-0.01691857353057536</v>
       </c>
       <c r="C86">
-        <v>0.00720705199033866</v>
+        <v>0.03986306171957713</v>
       </c>
       <c r="D86">
-        <v>-0.1090636613211618</v>
+        <v>-0.1119471458448898</v>
       </c>
       <c r="E86">
-        <v>0.04446499386661618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.000450517942243945</v>
+      </c>
+      <c r="F86">
+        <v>0.01971524148330283</v>
+      </c>
+      <c r="G86">
+        <v>-0.01577425090318972</v>
+      </c>
+      <c r="H86">
+        <v>-0.02775268834775599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02397245039549289</v>
+        <v>-0.0124158908187889</v>
       </c>
       <c r="C87">
-        <v>0.03132605581516554</v>
+        <v>0.06627845475928054</v>
       </c>
       <c r="D87">
-        <v>-0.1415831355612557</v>
+        <v>-0.1320714969494368</v>
       </c>
       <c r="E87">
-        <v>0.08476595481697204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04615383742485538</v>
+      </c>
+      <c r="F87">
+        <v>0.04266354702737158</v>
+      </c>
+      <c r="G87">
+        <v>0.08083608623964664</v>
+      </c>
+      <c r="H87">
+        <v>0.004859947406950031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04774090579266915</v>
+        <v>-0.03379913602194334</v>
       </c>
       <c r="C88">
-        <v>0.04697518066897877</v>
+        <v>0.07025896702707006</v>
       </c>
       <c r="D88">
-        <v>-0.001866412278524655</v>
+        <v>-0.01157217841232474</v>
       </c>
       <c r="E88">
-        <v>0.02273534503660802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03110142038786198</v>
+      </c>
+      <c r="F88">
+        <v>0.02063867165554011</v>
+      </c>
+      <c r="G88">
+        <v>-0.007387488050003221</v>
+      </c>
+      <c r="H88">
+        <v>-0.01849000963658242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3331639167704533</v>
+        <v>-0.3964408148158088</v>
       </c>
       <c r="C89">
-        <v>-0.309438718874092</v>
+        <v>-0.1652519397694873</v>
       </c>
       <c r="D89">
-        <v>-0.03996011208040755</v>
+        <v>-0.05542460913748473</v>
       </c>
       <c r="E89">
-        <v>0.1082416093699401</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03473681770113733</v>
+      </c>
+      <c r="F89">
+        <v>0.067597066111895</v>
+      </c>
+      <c r="G89">
+        <v>0.08342408801264641</v>
+      </c>
+      <c r="H89">
+        <v>0.08535913475359082</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2680240992458167</v>
+        <v>-0.322381861410622</v>
       </c>
       <c r="C90">
-        <v>-0.2283761379758054</v>
+        <v>-0.1082693945868349</v>
       </c>
       <c r="D90">
-        <v>-0.0600910462761779</v>
+        <v>-0.03163575464140397</v>
       </c>
       <c r="E90">
-        <v>-0.003370789459306261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0007477726055904944</v>
+      </c>
+      <c r="F90">
+        <v>-0.01072824235306975</v>
+      </c>
+      <c r="G90">
+        <v>0.06254893969346009</v>
+      </c>
+      <c r="H90">
+        <v>0.003360158833932461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1440057038213626</v>
+        <v>-0.06876850326121299</v>
       </c>
       <c r="C91">
-        <v>0.1954230823979499</v>
+        <v>0.2034630502763047</v>
       </c>
       <c r="D91">
-        <v>0.0941602869963503</v>
+        <v>0.1030391886304125</v>
       </c>
       <c r="E91">
-        <v>0.03765750841937949</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08015450041467945</v>
+      </c>
+      <c r="F91">
+        <v>0.06002389585022</v>
+      </c>
+      <c r="G91">
+        <v>0.01163667637050259</v>
+      </c>
+      <c r="H91">
+        <v>0.01903941965516237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2489801031461181</v>
+        <v>-0.3343608798489939</v>
       </c>
       <c r="C92">
-        <v>-0.2543324620068795</v>
+        <v>-0.1512548872929316</v>
       </c>
       <c r="D92">
-        <v>0.04974998760158114</v>
+        <v>-0.01753398114933605</v>
       </c>
       <c r="E92">
-        <v>0.0181706370345062</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06861981395967995</v>
+      </c>
+      <c r="F92">
+        <v>0.03685560841733946</v>
+      </c>
+      <c r="G92">
+        <v>0.001688572260501243</v>
+      </c>
+      <c r="H92">
+        <v>-0.1333673715971015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2874235612296336</v>
+        <v>-0.3291322397277139</v>
       </c>
       <c r="C93">
-        <v>-0.2409830492925781</v>
+        <v>-0.1244263777364528</v>
       </c>
       <c r="D93">
-        <v>0.02172035555087091</v>
+        <v>0.02485093793947228</v>
       </c>
       <c r="E93">
-        <v>7.571210273489861e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01315830084702302</v>
+      </c>
+      <c r="F93">
+        <v>0.01088556444407395</v>
+      </c>
+      <c r="G93">
+        <v>-0.02452918503012755</v>
+      </c>
+      <c r="H93">
+        <v>-0.03441555022485235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2670207012793947</v>
+        <v>-0.1248074865900905</v>
       </c>
       <c r="C94">
-        <v>0.2754600553924742</v>
+        <v>0.3245559003665847</v>
       </c>
       <c r="D94">
-        <v>0.2336186587531794</v>
+        <v>0.3543777538704321</v>
       </c>
       <c r="E94">
-        <v>-0.2985421458472293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.127230255295561</v>
+      </c>
+      <c r="F94">
+        <v>-0.1506196277462041</v>
+      </c>
+      <c r="G94">
+        <v>0.2817292178477808</v>
+      </c>
+      <c r="H94">
+        <v>-0.08653509306921317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0109689570392297</v>
+        <v>-0.01764583213034433</v>
       </c>
       <c r="C95">
-        <v>0.04358949967081332</v>
+        <v>0.07177513564227778</v>
       </c>
       <c r="D95">
-        <v>-0.1141310023213505</v>
+        <v>-0.1379231891297008</v>
       </c>
       <c r="E95">
-        <v>0.051126593597262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09549602630852311</v>
+      </c>
+      <c r="F95">
+        <v>-0.02958071047984649</v>
+      </c>
+      <c r="G95">
+        <v>-0.06670762620956483</v>
+      </c>
+      <c r="H95">
+        <v>-0.04585928922330257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002419331101255518</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00120979789199611</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-9.201950186111995e-05</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.004015745423183323</v>
+      </c>
+      <c r="F97">
+        <v>0.0005073205268039557</v>
+      </c>
+      <c r="G97">
+        <v>0.001799971173101688</v>
+      </c>
+      <c r="H97">
+        <v>-0.004905430379034148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1493651395070554</v>
+        <v>-0.134916396814714</v>
       </c>
       <c r="C98">
-        <v>0.0959241289302555</v>
+        <v>0.1615315475463931</v>
       </c>
       <c r="D98">
-        <v>-0.1268699589404318</v>
+        <v>-0.02537456642097006</v>
       </c>
       <c r="E98">
-        <v>-0.1091186828868781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1830189941788962</v>
+      </c>
+      <c r="F98">
+        <v>-0.2375115815802698</v>
+      </c>
+      <c r="G98">
+        <v>-0.3143877310029228</v>
+      </c>
+      <c r="H98">
+        <v>0.1022642141298725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0006178948869813973</v>
+        <v>-0.002914800499241726</v>
       </c>
       <c r="C101">
-        <v>0.0212106751103253</v>
+        <v>0.04132382262674318</v>
       </c>
       <c r="D101">
-        <v>-0.07628876163368807</v>
+        <v>-0.09270736002900319</v>
       </c>
       <c r="E101">
-        <v>0.04045684657859309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09508674743505401</v>
+      </c>
+      <c r="F101">
+        <v>0.03121406447303529</v>
+      </c>
+      <c r="G101">
+        <v>0.02395646741048437</v>
+      </c>
+      <c r="H101">
+        <v>0.04224683248829435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09760658125293828</v>
+        <v>-0.02377632772347275</v>
       </c>
       <c r="C102">
-        <v>0.165191891594525</v>
+        <v>0.1414238640857</v>
       </c>
       <c r="D102">
-        <v>0.02033299229674053</v>
+        <v>0.09739096609048882</v>
       </c>
       <c r="E102">
-        <v>-0.1010733905284366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05476216159781788</v>
+      </c>
+      <c r="F102">
+        <v>-0.08307970240475875</v>
+      </c>
+      <c r="G102">
+        <v>0.01202439511340602</v>
+      </c>
+      <c r="H102">
+        <v>0.02678726736529552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
